--- a/apps/baseline/tests/metadata.xlsx
+++ b/apps/baseline/tests/metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">bss_path</t>
   </si>
@@ -52,6 +52,15 @@
     <t xml:space="preserve">valid_to_date</t>
   </si>
   <si>
+    <t xml:space="preserve">data_collection_start_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_collection_end_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publication_date</t>
+  </si>
+  <si>
     <t xml:space="preserve">tests/bss.xlsx</t>
   </si>
   <si>
@@ -62,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">FEWS NET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasungu Lilongwe Plains </t>
   </si>
   <si>
     <t xml:space="preserve">Agropastoral</t>
@@ -80,6 +92,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -101,6 +114,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,13 +159,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -175,19 +193,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="24.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="19.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -221,33 +243,45 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>41730</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>42125</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>42156</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="3" t="n">
         <v>45809</v>
       </c>
     </row>
